--- a/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商直接投资/中国实际利用大洋洲各国(地区)外商直接投资金额.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商直接投资/中国实际利用大洋洲各国(地区)外商直接投资金额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,656 +483,392 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>831</v>
+      </c>
       <c r="D2" t="n">
-        <v>69403</v>
+        <v>232777</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="F2" t="n">
-        <v>1822</v>
+        <v>14229</v>
       </c>
       <c r="G2" t="n">
-        <v>30888</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>32501</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2997</v>
+      </c>
       <c r="I2" t="n">
-        <v>28316</v>
+        <v>177333</v>
       </c>
       <c r="J2" t="n">
-        <v>913</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2331</v>
+      </c>
       <c r="C3" t="n">
-        <v>2351</v>
+        <v>6147</v>
       </c>
       <c r="D3" t="n">
-        <v>101478</v>
+        <v>261998</v>
       </c>
       <c r="E3" t="n">
-        <v>728</v>
+        <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>4818</v>
+        <v>7422</v>
       </c>
       <c r="G3" t="n">
-        <v>33560</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>30953</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1002</v>
+      </c>
       <c r="I3" t="n">
-        <v>54321</v>
+        <v>207623</v>
       </c>
       <c r="J3" t="n">
-        <v>779</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>606</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>104619</v>
+        <v>226589</v>
       </c>
       <c r="E4" t="n">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="F4" t="n">
-        <v>4616</v>
+        <v>11890</v>
       </c>
       <c r="G4" t="n">
-        <v>38070</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>33797</v>
+      </c>
+      <c r="H4" t="n">
+        <v>515</v>
+      </c>
       <c r="I4" t="n">
-        <v>87947</v>
+        <v>174371</v>
       </c>
       <c r="J4" t="n">
-        <v>668</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1048</v>
+      </c>
       <c r="C5" t="n">
-        <v>465</v>
+        <v>1007</v>
       </c>
       <c r="D5" t="n">
-        <v>173119</v>
+        <v>232652</v>
       </c>
       <c r="E5" t="n">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>6577</v>
+        <v>6795</v>
       </c>
       <c r="G5" t="n">
-        <v>59253</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>32967</v>
+      </c>
+      <c r="H5" t="n">
+        <v>79</v>
+      </c>
       <c r="I5" t="n">
-        <v>98572</v>
+        <v>185807</v>
       </c>
       <c r="J5" t="n">
-        <v>1102</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>545</v>
+      </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>197437</v>
+        <v>189251</v>
       </c>
       <c r="E6" t="n">
-        <v>637</v>
+        <v>82</v>
       </c>
       <c r="F6" t="n">
-        <v>11528</v>
+        <v>4748</v>
       </c>
       <c r="G6" t="n">
-        <v>66263</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>23853</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
       <c r="I6" t="n">
-        <v>112885</v>
+        <v>156383</v>
       </c>
       <c r="J6" t="n">
-        <v>1543</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>634</v>
+        <v>1083</v>
       </c>
       <c r="D7" t="n">
-        <v>199898</v>
-      </c>
-      <c r="E7" t="n">
-        <v>457</v>
-      </c>
+        <v>244357</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>12991</v>
+        <v>2247</v>
       </c>
       <c r="G7" t="n">
-        <v>40093</v>
+        <v>30689</v>
       </c>
       <c r="H7" t="n">
-        <v>171</v>
+        <v>624</v>
       </c>
       <c r="I7" t="n">
-        <v>135187</v>
+        <v>199109</v>
       </c>
       <c r="J7" t="n">
-        <v>4580</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1266</v>
+        <v>2355</v>
       </c>
       <c r="D8" t="n">
-        <v>226024</v>
-      </c>
-      <c r="E8" t="n">
-        <v>271</v>
-      </c>
+        <v>126794</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>8340</v>
+        <v>3182</v>
       </c>
       <c r="G8" t="n">
-        <v>55189</v>
+        <v>26264</v>
       </c>
       <c r="H8" t="n">
-        <v>298</v>
+        <v>2920</v>
       </c>
       <c r="I8" t="n">
-        <v>153754</v>
+        <v>87248</v>
       </c>
       <c r="J8" t="n">
-        <v>3057</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1239</v>
+        <v>3410</v>
       </c>
       <c r="D9" t="n">
-        <v>274290</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2614</v>
-      </c>
+        <v>160950</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>6391</v>
+        <v>2116</v>
       </c>
       <c r="G9" t="n">
-        <v>35387</v>
-      </c>
-      <c r="H9" t="n">
-        <v>283</v>
-      </c>
+        <v>27618</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>216988</v>
+        <v>122943</v>
       </c>
       <c r="J9" t="n">
-        <v>7391</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>889</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1521</v>
+        <v>949</v>
       </c>
       <c r="D10" t="n">
-        <v>316987</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2030</v>
-      </c>
+        <v>190904</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>6923</v>
+        <v>3326</v>
       </c>
       <c r="G10" t="n">
-        <v>40707</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16</v>
-      </c>
+        <v>28889</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>254975</v>
+        <v>155421</v>
       </c>
       <c r="J10" t="n">
-        <v>9456</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1147</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>539</v>
+        <v>170</v>
       </c>
       <c r="D11" t="n">
-        <v>252877</v>
+        <v>172579</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>8495</v>
+        <v>4405</v>
       </c>
       <c r="G11" t="n">
-        <v>39437</v>
+        <v>42856</v>
       </c>
       <c r="H11" t="n">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="I11" t="n">
-        <v>202003</v>
+        <v>119182</v>
       </c>
       <c r="J11" t="n">
-        <v>1063</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1555</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>831</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>232777</v>
+        <v>124903</v>
       </c>
       <c r="E12" t="n">
-        <v>300</v>
+        <v>1525</v>
       </c>
       <c r="F12" t="n">
-        <v>14229</v>
+        <v>2727</v>
       </c>
       <c r="G12" t="n">
-        <v>32501</v>
+        <v>34156</v>
       </c>
       <c r="H12" t="n">
-        <v>2997</v>
+        <v>468</v>
       </c>
       <c r="I12" t="n">
-        <v>177333</v>
+        <v>80408</v>
       </c>
       <c r="J12" t="n">
-        <v>3031</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2331</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6147</v>
+        <v>1420</v>
       </c>
       <c r="D13" t="n">
-        <v>261998</v>
-      </c>
-      <c r="E13" t="n">
-        <v>150</v>
-      </c>
+        <v>98004</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>7422</v>
+        <v>1782</v>
       </c>
       <c r="G13" t="n">
-        <v>30953</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1002</v>
-      </c>
+        <v>29953</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>207623</v>
+        <v>62144</v>
       </c>
       <c r="J13" t="n">
-        <v>6370</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>226589</v>
-      </c>
-      <c r="E14" t="n">
-        <v>134</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11890</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>33797</v>
-      </c>
-      <c r="H14" t="n">
-        <v>515</v>
-      </c>
-      <c r="I14" t="n">
-        <v>174371</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1048</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D15" t="n">
-        <v>232652</v>
-      </c>
-      <c r="E15" t="n">
-        <v>65</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6795</v>
-      </c>
-      <c r="G15" t="n">
-        <v>32967</v>
-      </c>
-      <c r="H15" t="n">
-        <v>79</v>
-      </c>
-      <c r="I15" t="n">
-        <v>185807</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4884</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>545</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29</v>
-      </c>
-      <c r="D16" t="n">
-        <v>189251</v>
-      </c>
-      <c r="E16" t="n">
-        <v>82</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4748</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23853</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16</v>
-      </c>
-      <c r="I16" t="n">
-        <v>156383</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>1083</v>
-      </c>
-      <c r="D17" t="n">
-        <v>244357</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>2247</v>
-      </c>
-      <c r="G17" t="n">
-        <v>30689</v>
-      </c>
-      <c r="H17" t="n">
-        <v>624</v>
-      </c>
-      <c r="I17" t="n">
-        <v>199109</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7189</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>2355</v>
-      </c>
-      <c r="D18" t="n">
-        <v>126794</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>3182</v>
-      </c>
-      <c r="G18" t="n">
-        <v>26264</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2920</v>
-      </c>
-      <c r="I18" t="n">
-        <v>87248</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4825</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>3410</v>
-      </c>
-      <c r="D19" t="n">
-        <v>160950</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>2116</v>
-      </c>
-      <c r="G19" t="n">
-        <v>27618</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>122943</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4863</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>949</v>
-      </c>
-      <c r="D20" t="n">
-        <v>190904</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>3326</v>
-      </c>
-      <c r="G20" t="n">
-        <v>28889</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>155421</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>170</v>
-      </c>
-      <c r="D21" t="n">
-        <v>172579</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>4405</v>
-      </c>
-      <c r="G21" t="n">
-        <v>42856</v>
-      </c>
-      <c r="H21" t="n">
-        <v>190</v>
-      </c>
-      <c r="I21" t="n">
-        <v>119182</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5776</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>124903</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1525</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2727</v>
-      </c>
-      <c r="G22" t="n">
-        <v>34156</v>
-      </c>
-      <c r="H22" t="n">
-        <v>468</v>
-      </c>
-      <c r="I22" t="n">
-        <v>80408</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5599</v>
-      </c>
+        <v>40211</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
